--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,60 +40,36 @@
     <t>name</t>
   </si>
   <si>
-    <t>accused</t>
-  </si>
-  <si>
-    <t>arrested</t>
-  </si>
-  <si>
-    <t>killed</t>
+    <t>crude</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>warning</t>
   </si>
   <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
+    <t>crisis</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>kill</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>war</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>risk</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -103,136 +79,148 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>great</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>happy</t>
+    <t>strong</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>hope</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
+    <t>increase</t>
   </si>
   <si>
     <t>sure</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>online</t>
+  </si>
+  <si>
     <t>store</t>
   </si>
   <si>
     <t>shopping</t>
   </si>
   <si>
-    <t>online</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -590,7 +578,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -598,10 +586,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -659,13 +647,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -677,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9661016949152542</v>
       </c>
       <c r="L3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -701,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -709,37 +697,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C4">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="K4">
-        <v>0.96875</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -759,13 +747,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9090909090909091</v>
+        <v>0.64</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -777,19 +765,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5">
+        <v>0.9393939393939394</v>
+      </c>
+      <c r="L5">
         <v>31</v>
       </c>
-      <c r="K5">
-        <v>0.9583333333333334</v>
-      </c>
-      <c r="L5">
-        <v>23</v>
-      </c>
       <c r="M5">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -801,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -809,37 +797,37 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8235294117647058</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>22</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>14</v>
       </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>3</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -851,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -859,13 +847,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.76</v>
+        <v>0.5821917808219178</v>
       </c>
       <c r="C7">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="D7">
-        <v>19</v>
+        <v>170</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -877,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>122</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="K7">
-        <v>0.9</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -901,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -909,49 +897,49 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7272727272727273</v>
+        <v>0.5172413793103449</v>
       </c>
       <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8">
+        <v>15</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>14</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8">
+        <v>0.8260869565217391</v>
+      </c>
+      <c r="L8">
+        <v>38</v>
+      </c>
+      <c r="M8">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>8</v>
-      </c>
-      <c r="D8">
-        <v>8</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>14</v>
-      </c>
-      <c r="M8">
-        <v>14</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -959,13 +947,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7142857142857143</v>
+        <v>0.3947368421052632</v>
       </c>
       <c r="C9">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>110</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -977,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1001,7 +989,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1009,13 +997,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7</v>
+        <v>0.24</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1027,19 +1015,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="K10">
-        <v>0.8235294117647058</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L10">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1051,7 +1039,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1059,13 +1047,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.2151162790697674</v>
       </c>
       <c r="C11">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1077,31 +1065,31 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>405</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11">
+        <v>0.7894736842105263</v>
+      </c>
+      <c r="L11">
+        <v>15</v>
+      </c>
+      <c r="M11">
+        <v>15</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
         <v>4</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>14</v>
-      </c>
-      <c r="M11">
-        <v>14</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1109,13 +1097,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1127,19 +1115,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>6</v>
+        <v>150</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K12">
-        <v>0.8148148148148148</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M12">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1151,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1159,13 +1147,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4642857142857143</v>
+        <v>0.1543624161073825</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1177,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>15</v>
+        <v>126</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="K13">
-        <v>0.7931034482758621</v>
+        <v>0.7833333333333333</v>
       </c>
       <c r="L13">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="M13">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1201,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1209,13 +1197,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4210526315789473</v>
+        <v>0.05158730158730158</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1227,19 +1215,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>239</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="K14">
         <v>0.7777777777777778</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1251,295 +1239,151 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15">
-        <v>0.4166666666666667</v>
-      </c>
-      <c r="C15">
+      <c r="J15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15">
+        <v>0.7758620689655172</v>
+      </c>
+      <c r="L15">
+        <v>45</v>
+      </c>
+      <c r="M15">
+        <v>45</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="J16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K16">
+        <v>0.7734375</v>
+      </c>
+      <c r="L16">
+        <v>99</v>
+      </c>
+      <c r="M16">
+        <v>99</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="10:17">
+      <c r="J17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K17">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
       </c>
-      <c r="D15">
-        <v>10</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>14</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15">
-        <v>0.7692307692307693</v>
-      </c>
-      <c r="L15">
-        <v>10</v>
-      </c>
-      <c r="M15">
-        <v>10</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
-        <v>0.3476394849785407</v>
-      </c>
-      <c r="C16">
-        <v>81</v>
-      </c>
-      <c r="D16">
-        <v>81</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>152</v>
-      </c>
-      <c r="J16" s="1" t="s">
+    </row>
+    <row r="18" spans="10:17">
+      <c r="J18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18">
+        <v>0.7083333333333334</v>
+      </c>
+      <c r="L18">
+        <v>17</v>
+      </c>
+      <c r="M18">
+        <v>17</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="10:17">
+      <c r="J19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19">
+        <v>0.704225352112676</v>
+      </c>
+      <c r="L19">
+        <v>100</v>
+      </c>
+      <c r="M19">
+        <v>100</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
         <v>42</v>
       </c>
-      <c r="K16">
-        <v>0.7678571428571429</v>
-      </c>
-      <c r="L16">
-        <v>43</v>
-      </c>
-      <c r="M16">
-        <v>43</v>
-      </c>
-      <c r="N16">
-        <v>1</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="C17">
-        <v>7</v>
-      </c>
-      <c r="D17">
-        <v>7</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>14</v>
-      </c>
-      <c r="J17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>0.75</v>
-      </c>
-      <c r="L17">
-        <v>15</v>
-      </c>
-      <c r="M17">
-        <v>15</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18">
-        <v>0.3103448275862069</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>9</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>20</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="K18">
-        <v>0.7413793103448276</v>
-      </c>
-      <c r="L18">
-        <v>43</v>
-      </c>
-      <c r="M18">
-        <v>43</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.3023255813953488</v>
-      </c>
-      <c r="C19">
-        <v>26</v>
-      </c>
-      <c r="D19">
-        <v>26</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>60</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K19">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L19">
-        <v>27</v>
-      </c>
-      <c r="M19">
-        <v>27</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.2592592592592592</v>
-      </c>
-      <c r="C20">
-        <v>7</v>
-      </c>
-      <c r="D20">
-        <v>7</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>20</v>
-      </c>
+    </row>
+    <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="K20">
-        <v>0.6923076923076923</v>
+        <v>0.7</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>112</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1551,45 +1395,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
-      <c r="A21" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>0.2375</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21">
-        <v>19</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>61</v>
-      </c>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K21">
-        <v>0.684931506849315</v>
+        <v>0.6698113207547169</v>
       </c>
       <c r="L21">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="M21">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1601,39 +1421,15 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="A22" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22">
-        <v>0.1181818181818182</v>
-      </c>
-      <c r="C22">
-        <v>13</v>
-      </c>
-      <c r="D22">
-        <v>13</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>97</v>
-      </c>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="K22">
-        <v>0.68</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L22">
         <v>17</v>
@@ -1651,255 +1447,255 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K23">
+        <v>0.6276595744680851</v>
+      </c>
+      <c r="L23">
+        <v>59</v>
+      </c>
+      <c r="M23">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="24" spans="10:17">
+      <c r="J24" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>0.6170212765957447</v>
+      </c>
+      <c r="L24">
+        <v>29</v>
+      </c>
+      <c r="M24">
+        <v>29</v>
+      </c>
+      <c r="N24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="10:17">
+      <c r="J25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K25">
+        <v>0.6</v>
+      </c>
+      <c r="L25">
+        <v>30</v>
+      </c>
+      <c r="M25">
+        <v>30</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="10:17">
+      <c r="J26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K26">
+        <v>0.5714285714285714</v>
+      </c>
+      <c r="L26">
+        <v>36</v>
+      </c>
+      <c r="M26">
+        <v>36</v>
+      </c>
+      <c r="N26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="10:17">
+      <c r="J27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27">
+        <v>0.5208333333333334</v>
+      </c>
+      <c r="L27">
+        <v>25</v>
+      </c>
+      <c r="M27">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="10:17">
+      <c r="J28" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28">
+        <v>0.5195822454308094</v>
+      </c>
+      <c r="L28">
+        <v>199</v>
+      </c>
+      <c r="M28">
+        <v>199</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29">
+        <v>0.5</v>
+      </c>
+      <c r="L29">
+        <v>17</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K30">
+        <v>0.5</v>
+      </c>
+      <c r="L30">
+        <v>14</v>
+      </c>
+      <c r="M30">
+        <v>14</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K23">
-        <v>0.6060606060606061</v>
-      </c>
-      <c r="L23">
-        <v>20</v>
-      </c>
-      <c r="M23">
-        <v>20</v>
-      </c>
-      <c r="N23">
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="J24" s="1" t="s">
+      <c r="K31">
+        <v>0.4764705882352941</v>
+      </c>
+      <c r="L31">
+        <v>162</v>
+      </c>
+      <c r="M31">
+        <v>162</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K24">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="L24">
-        <v>10</v>
-      </c>
-      <c r="M24">
-        <v>10</v>
-      </c>
-      <c r="N24">
-        <v>1</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
-      <c r="J25" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="K25">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>7</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
-      <c r="J26" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="K26">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="L26">
-        <v>14</v>
-      </c>
-      <c r="M26">
-        <v>14</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17">
-      <c r="J27" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="K27">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L27">
-        <v>78</v>
-      </c>
-      <c r="M27">
-        <v>78</v>
-      </c>
-      <c r="N27">
-        <v>1</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17">
-      <c r="J28" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K28">
-        <v>0.5416666666666666</v>
-      </c>
-      <c r="L28">
-        <v>13</v>
-      </c>
-      <c r="M28">
-        <v>13</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="K29">
-        <v>0.5333333333333333</v>
-      </c>
-      <c r="L29">
-        <v>16</v>
-      </c>
-      <c r="M29">
-        <v>16</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K30">
-        <v>0.5263157894736842</v>
-      </c>
-      <c r="L30">
-        <v>10</v>
-      </c>
-      <c r="M30">
-        <v>10</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
-      <c r="J31" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K31">
-        <v>0.5211267605633803</v>
-      </c>
-      <c r="L31">
-        <v>111</v>
-      </c>
-      <c r="M31">
-        <v>111</v>
-      </c>
-      <c r="N31">
-        <v>1</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17">
-      <c r="J32" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="K32">
-        <v>0.5</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L32">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="M32">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1911,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="K33">
-        <v>0.4961240310077519</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L33">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="M33">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1937,21 +1733,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>65</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="K34">
-        <v>0.4857142857142857</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1963,21 +1759,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="K35">
-        <v>0.4642857142857143</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L35">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="M35">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1989,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>15</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="K36">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
       <c r="L36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="M36">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2015,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="K37">
-        <v>0.3695652173913043</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2041,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="K38">
-        <v>0.3333333333333333</v>
+        <v>0.2888888888888889</v>
       </c>
       <c r="L38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M38">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2067,21 +1863,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="K39">
-        <v>0.3125</v>
+        <v>0.2769230769230769</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2093,21 +1889,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K40">
-        <v>0.2432432432432433</v>
+        <v>0.2692307692307692</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2119,21 +1915,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>28</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="K41">
-        <v>0.2105263157894737</v>
+        <v>0.234375</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2145,21 +1941,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>30</v>
+        <v>49</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="K42">
-        <v>0.04390243902439024</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="L42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="M42">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2171,21 +1967,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>392</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="K43">
         <v>0.03827751196172249</v>
       </c>
       <c r="L43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M43">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2197,21 +1993,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>201</v>
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="K44">
-        <v>0.03535353535353535</v>
+        <v>0.03691275167785235</v>
       </c>
       <c r="L44">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="M44">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2223,21 +2019,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>191</v>
+        <v>861</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="K45">
-        <v>0.03286384976525822</v>
+        <v>0.0360576923076923</v>
       </c>
       <c r="L45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2249,33 +2045,137 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>412</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="K46">
-        <v>0.008035714285714285</v>
+        <v>0.02311248073959938</v>
       </c>
       <c r="L46">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="M46">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N46">
-        <v>0.75</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O46">
-        <v>0.25</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P46" t="b">
         <v>1</v>
       </c>
       <c r="Q46">
-        <v>1111</v>
+        <v>634</v>
+      </c>
+    </row>
+    <row r="47" spans="10:17">
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47">
+        <v>0.02219755826859045</v>
+      </c>
+      <c r="L47">
+        <v>20</v>
+      </c>
+      <c r="M47">
+        <v>20</v>
+      </c>
+      <c r="N47">
+        <v>1</v>
+      </c>
+      <c r="O47">
+        <v>0</v>
+      </c>
+      <c r="P47" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="48" spans="10:17">
+      <c r="J48" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48">
+        <v>0.01260504201680672</v>
+      </c>
+      <c r="L48">
+        <v>27</v>
+      </c>
+      <c r="M48">
+        <v>28</v>
+      </c>
+      <c r="N48">
+        <v>0.96</v>
+      </c>
+      <c r="O48">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P48" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q48">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="49" spans="10:17">
+      <c r="J49" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>0.009342783505154639</v>
+      </c>
+      <c r="L49">
+        <v>29</v>
+      </c>
+      <c r="M49">
+        <v>32</v>
+      </c>
+      <c r="N49">
+        <v>0.91</v>
+      </c>
+      <c r="O49">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>3075</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K50">
+        <v>0.005324146570623238</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
+        <v>25</v>
+      </c>
+      <c r="N50">
+        <v>0.68</v>
+      </c>
+      <c r="O50">
+        <v>0.32</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,39 +40,45 @@
     <t>name</t>
   </si>
   <si>
+    <t>killed</t>
+  </si>
+  <si>
+    <t>arrested</t>
+  </si>
+  <si>
     <t>crude</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>died</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
     <t>warning</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>war</t>
   </si>
   <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>shortage</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>panic</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -82,10 +88,13 @@
     <t>best</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
+    <t>love</t>
   </si>
   <si>
     <t>nice</t>
@@ -94,124 +103,118 @@
     <t>great</t>
   </si>
   <si>
-    <t>love</t>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>ensure</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>special</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safety</t>
   </si>
   <si>
     <t>friend</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>confidence</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>hand</t>
+    <t>energy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>energy</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>hope</t>
+    <t>sure</t>
   </si>
   <si>
     <t>increase</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>online</t>
   </si>
   <si>
-    <t>store</t>
+    <t>grocery</t>
   </si>
   <si>
     <t>shopping</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
@@ -578,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,10 +589,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -647,13 +650,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -665,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3">
-        <v>0.9661016949152542</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -689,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -697,13 +700,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6538461538461539</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -715,19 +718,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K4">
-        <v>0.9615384615384616</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M4">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -739,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -747,13 +750,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.64</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -765,19 +768,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K5">
-        <v>0.9393939393939394</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -797,13 +800,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6111111111111112</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -815,19 +818,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="K6">
-        <v>0.8518518518518519</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -839,7 +842,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,13 +850,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5821917808219178</v>
+        <v>0.6538461538461539</v>
       </c>
       <c r="C7">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="D7">
-        <v>170</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -865,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>122</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K7">
-        <v>0.8482142857142857</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -897,13 +900,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5172413793103449</v>
+        <v>0.6198630136986302</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D8">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -915,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>111</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K8">
-        <v>0.8260869565217391</v>
+        <v>0.8392857142857143</v>
       </c>
       <c r="L8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="M8">
-        <v>38</v>
+        <v>94</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -939,7 +942,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -947,13 +950,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.3947368421052632</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -965,19 +968,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K9">
-        <v>0.8181818181818182</v>
+        <v>0.8046875</v>
       </c>
       <c r="L9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="M9">
-        <v>18</v>
+        <v>103</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -989,7 +992,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -997,13 +1000,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.24</v>
+        <v>0.52</v>
       </c>
       <c r="C10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1015,19 +1018,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>57</v>
+        <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K10">
-        <v>0.8048780487804879</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>66</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1047,13 +1050,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.2151162790697674</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C11">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="D11">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1065,19 +1068,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>405</v>
+        <v>22</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K11">
-        <v>0.7894736842105263</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1089,7 +1092,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1097,13 +1100,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.2063492063492063</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C12">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="D12">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1115,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12">
-        <v>0.7843137254901961</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1139,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1147,13 +1150,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.1543624161073825</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="D13">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1165,19 +1168,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>126</v>
+        <v>46</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.75</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1189,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1197,90 +1200,138 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.05158730158730158</v>
+        <v>0.2169312169312169</v>
       </c>
       <c r="C14">
+        <v>41</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>148</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="L14">
+        <v>16</v>
+      </c>
+      <c r="M14">
+        <v>16</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>0.2015503875968992</v>
+      </c>
+      <c r="C15">
+        <v>104</v>
+      </c>
+      <c r="D15">
+        <v>104</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>412</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K15">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L15">
+        <v>26</v>
+      </c>
+      <c r="M15">
+        <v>26</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="C16">
+        <v>18</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>234</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K16">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="L16">
         <v>13</v>
       </c>
-      <c r="D14">
+      <c r="M16">
         <v>13</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>239</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14">
-        <v>0.7777777777777778</v>
-      </c>
-      <c r="L14">
-        <v>28</v>
-      </c>
-      <c r="M14">
-        <v>28</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="J15" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15">
-        <v>0.7758620689655172</v>
-      </c>
-      <c r="L15">
-        <v>45</v>
-      </c>
-      <c r="M15">
-        <v>45</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="J16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K16">
-        <v>0.7734375</v>
-      </c>
-      <c r="L16">
-        <v>99</v>
-      </c>
-      <c r="M16">
-        <v>99</v>
-      </c>
       <c r="N16">
         <v>1</v>
       </c>
@@ -1291,21 +1342,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1317,21 +1368,21 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K18">
-        <v>0.7083333333333334</v>
+        <v>0.704225352112676</v>
       </c>
       <c r="L18">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="M18">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1343,21 +1394,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>7</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K19">
-        <v>0.704225352112676</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1369,21 +1420,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K20">
-        <v>0.7</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>112</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1395,21 +1446,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>48</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K21">
-        <v>0.6698113207547169</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="L21">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="M21">
-        <v>71</v>
+        <v>13</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1421,47 +1472,47 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K22">
-        <v>0.6296296296296297</v>
+        <v>0.6382978723404256</v>
       </c>
       <c r="L22">
+        <v>30</v>
+      </c>
+      <c r="M22">
+        <v>30</v>
+      </c>
+      <c r="N22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q22">
         <v>17</v>
-      </c>
-      <c r="M22">
-        <v>17</v>
-      </c>
-      <c r="N22">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="P22" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>10</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
-        <v>0.6276595744680851</v>
+        <v>0.6375</v>
       </c>
       <c r="L23">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="M23">
-        <v>59</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1473,21 +1524,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>35</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1499,21 +1550,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K25">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="L25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M25">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1525,21 +1576,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5535248041775457</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>212</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1551,21 +1602,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K27">
-        <v>0.5208333333333334</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L27">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="M27">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1577,21 +1628,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K28">
-        <v>0.5195822454308094</v>
+        <v>0.5396825396825397</v>
       </c>
       <c r="L28">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="M28">
-        <v>199</v>
+        <v>34</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1603,21 +1654,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>184</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K29">
-        <v>0.5</v>
+        <v>0.5277777777777778</v>
       </c>
       <c r="L29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="M29">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1634,16 +1685,16 @@
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K30">
-        <v>0.5</v>
+        <v>0.5208333333333334</v>
       </c>
       <c r="L30">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="M30">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1655,21 +1706,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K31">
-        <v>0.4764705882352941</v>
+        <v>0.5</v>
       </c>
       <c r="L31">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="M31">
-        <v>162</v>
+        <v>20</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1681,21 +1732,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>178</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K32">
-        <v>0.449438202247191</v>
+        <v>0.4943820224719101</v>
       </c>
       <c r="L32">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1707,21 +1758,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K33">
-        <v>0.4203389830508474</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L33">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="M33">
-        <v>124</v>
+        <v>31</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1733,21 +1784,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>171</v>
+        <v>34</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K34">
-        <v>0.3939393939393939</v>
+        <v>0.4711864406779661</v>
       </c>
       <c r="L34">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="M34">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1759,21 +1810,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>156</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K35">
-        <v>0.3556485355648535</v>
+        <v>0.4676470588235294</v>
       </c>
       <c r="L35">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="M35">
-        <v>85</v>
+        <v>159</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1785,21 +1836,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>154</v>
+        <v>181</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K36">
-        <v>0.35</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L36">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="M36">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1811,21 +1862,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K37">
-        <v>0.3013698630136986</v>
+        <v>0.3823529411764706</v>
       </c>
       <c r="L37">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="M37">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1837,21 +1888,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K38">
-        <v>0.2888888888888889</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>90</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1863,21 +1914,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>32</v>
+        <v>149</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K39">
-        <v>0.2769230769230769</v>
+        <v>0.3555555555555556</v>
       </c>
       <c r="L39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1889,15 +1940,15 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K40">
-        <v>0.2692307692307692</v>
+        <v>0.328125</v>
       </c>
       <c r="L40">
         <v>21</v>
@@ -1915,21 +1966,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K41">
-        <v>0.234375</v>
+        <v>0.3205128205128205</v>
       </c>
       <c r="L41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M41">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1941,21 +1992,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K42">
-        <v>0.2142857142857143</v>
+        <v>0.2</v>
       </c>
       <c r="L42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1967,21 +2018,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K43">
-        <v>0.03827751196172249</v>
+        <v>0.04809843400447427</v>
       </c>
       <c r="L43">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="M43">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1993,21 +2044,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>402</v>
+        <v>851</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K44">
-        <v>0.03691275167785235</v>
+        <v>0.04066985645933014</v>
       </c>
       <c r="L44">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="M44">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2019,21 +2070,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>861</v>
+        <v>401</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K45">
-        <v>0.0360576923076923</v>
+        <v>0.03551609322974473</v>
       </c>
       <c r="L45">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M45">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2045,137 +2096,111 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>401</v>
+        <v>869</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K46">
-        <v>0.02311248073959938</v>
+        <v>0.03125</v>
       </c>
       <c r="L46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M46">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="N46">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>634</v>
+        <v>403</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K47">
-        <v>0.02219755826859045</v>
+        <v>0.01027557216254087</v>
       </c>
       <c r="L47">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="M47">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="P47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q47">
-        <v>881</v>
+        <v>2119</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K48">
-        <v>0.01260504201680672</v>
+        <v>0.009342783505154639</v>
       </c>
       <c r="L48">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M48">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N48">
-        <v>0.96</v>
+        <v>0.91</v>
       </c>
       <c r="O48">
-        <v>0.04000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>2115</v>
+        <v>3075</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K49">
-        <v>0.009342783505154639</v>
+        <v>0.005009392611145898</v>
       </c>
       <c r="L49">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="M49">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="N49">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="O49">
-        <v>0.08999999999999997</v>
+        <v>0.3</v>
       </c>
       <c r="P49" t="b">
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>3075</v>
-      </c>
-    </row>
-    <row r="50" spans="10:17">
-      <c r="J50" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="K50">
-        <v>0.005324146570623238</v>
-      </c>
-      <c r="L50">
-        <v>17</v>
-      </c>
-      <c r="M50">
-        <v>25</v>
-      </c>
-      <c r="N50">
-        <v>0.68</v>
-      </c>
-      <c r="O50">
-        <v>0.32</v>
-      </c>
-      <c r="P50" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q50">
-        <v>3176</v>
+        <v>3178</v>
       </c>
     </row>
   </sheetData>
